--- a/src/main/resources/datasource.xlsx
+++ b/src/main/resources/datasource.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijayan.s01\Desktop\Java WorkSpace\E2EAPITesting\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191A0367-BD30-494E-AD61-B82333AEE4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF256AE5-C247-4324-A6C1-18EDB3570E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8B7DA121-7445-44F9-B889-615C2D87E7F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="testData" sheetId="2" r:id="rId1"/>
-    <sheet name="Authentication Testing" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,111 +36,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
-  <si>
-    <t>Test Case ID</t>
-  </si>
-  <si>
-    <t>Test Description</t>
-  </si>
-  <si>
-    <t>Test Steps</t>
-  </si>
-  <si>
-    <t>Test Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected Result </t>
-  </si>
-  <si>
-    <t>Actual Result</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Scenario</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>mobileNumber</t>
+  </si>
+  <si>
+    <t>TestUser</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>TestCase ID</t>
   </si>
   <si>
     <t>TC_Auth_001</t>
   </si>
   <si>
-    <t>User Registration</t>
-  </si>
-  <si>
-    <t>Successful User Registration</t>
-  </si>
-  <si>
-    <t>Verify that a new user can register successfully with valid details</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>User should be successfully registered and receive a confirmation message or email.</t>
-  </si>
-  <si>
-    <t>1. Connect with Signup endpoint http://64.227.160.186:8080/api/auth/signup
-2. Enter a valid username.
-3. Enter a valid password.
-4. Enter a valid email address.
-5. Enter a valid First Name
-6. Enter a valid Last Name
-7. Enter a valid mobile number.
-8. Post the Request</t>
-  </si>
-  <si>
-    <t>Valid username
-valid password
-valid email
-valid firstname
-valid lastname
-valid mobile</t>
-  </si>
-  <si>
-    <t>TC001</t>
-  </si>
-  <si>
-    <t>TC002</t>
-  </si>
-  <si>
-    <t>TC003</t>
-  </si>
-  <si>
-    <t>TC004</t>
-  </si>
-  <si>
-    <t>Ravi</t>
-  </si>
-  <si>
-    <t>Ravi123</t>
-  </si>
-  <si>
-    <t>Ravi231</t>
-  </si>
-  <si>
-    <t>sdfasdf</t>
-  </si>
-  <si>
-    <t>asdfas</t>
+    <t>TC_Auth_002</t>
+  </si>
+  <si>
+    <t>TC_Auth_003</t>
+  </si>
+  <si>
+    <t>TC_Auth_004</t>
+  </si>
+  <si>
+    <t>TC_Auth_005</t>
+  </si>
+  <si>
+    <t>pwd1</t>
   </si>
 </sst>
 </file>
@@ -152,13 +91,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -183,12 +122,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -217,39 +152,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -282,26 +217,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -334,23 +252,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -412,6 +313,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -420,13 +328,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -491,213 +392,190 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713E47AC-BF6A-4280-BA59-C18DFB54A571}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2">
-        <v>1231231</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2">
-        <f>SUM(1,7)</f>
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B2" t="str">
+        <f ca="1">"testuser" &amp; RANDBETWEEN(1,99999)</f>
+        <v>testuser24634</v>
+      </c>
+      <c r="C2" t="str">
+        <f ca="1">"password"&amp;RANDBETWEEN(10, 10000)</f>
+        <v>password5182</v>
+      </c>
+      <c r="D2" t="str">
+        <f ca="1">_xlfn.CONCAT(B2,"@yahoo.com")</f>
+        <v>testuser24634@yahoo.com</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
+        <v>7249146188</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3">
-        <v>1231232</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E4" si="0">SUM(1,7)</f>
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="B3" t="str">
+        <f ca="1">B2</f>
+        <v>testuser24634</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C4" ca="1" si="0">"password"&amp;RANDBETWEEN(10, 10000)</f>
+        <v>password204</v>
+      </c>
+      <c r="D3" t="str">
+        <f ca="1">_xlfn.CONCAT("uniqueuser" &amp; RANDBETWEEN(1,99999),"@yahoo.com")</f>
+        <v>uniqueuser14401@yahoo.com</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
+        <v>7013829805</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4">
-        <v>1231233</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="B4" t="str">
+        <f ca="1">"testuser" &amp; RANDBETWEEN(1,99999)</f>
+        <v>testuser14461</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>password1756</v>
+      </c>
+      <c r="D4" t="str">
+        <f ca="1">D2</f>
+        <v>testuser24634@yahoo.com</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
+        <v>9036953826</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B5" t="str">
+        <f ca="1">"testuser" &amp; RANDBETWEEN(1,99999)</f>
+        <v>testuser67116</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="str">
+        <f ca="1">_xlfn.CONCAT(B5,"@yahoo.com")</f>
+        <v>testuser67116@yahoo.com</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
+        <v>7682708759</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="str">
+        <f ca="1">"testuser" &amp; RANDBETWEEN(1,99999)</f>
+        <v>testuser1770</v>
+      </c>
+      <c r="D6" t="str">
+        <f ca="1">_xlfn.CONCAT(B6,"@yahoo.com")</f>
+        <v>testuser1770@yahoo.com</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
+        <v>7598823955</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C5836F-31AB-4325-A0A4-7E753A8264EE}">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/main/resources/datasource.xlsx
+++ b/src/main/resources/datasource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijayan.s01\Desktop\Java WorkSpace\E2EAPITesting\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF256AE5-C247-4324-A6C1-18EDB3570E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0521AAD0-9E69-4A7D-AB9B-C953F5B75B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -407,7 +407,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,15 +450,15 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">"testuser" &amp; RANDBETWEEN(1,99999)</f>
-        <v>testuser24634</v>
+        <v>testuser40332</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">"password"&amp;RANDBETWEEN(10, 10000)</f>
-        <v>password5182</v>
+        <v>password123</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">_xlfn.CONCAT(B2,"@yahoo.com")</f>
-        <v>testuser24634@yahoo.com</v>
+        <v>testuser40332@yahoo.com</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -468,7 +468,7 @@
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
-        <v>7249146188</v>
+        <v>8765586832</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -477,15 +477,15 @@
       </c>
       <c r="B3" t="str">
         <f ca="1">B2</f>
-        <v>testuser24634</v>
+        <v>testuser40332</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C4" ca="1" si="0">"password"&amp;RANDBETWEEN(10, 10000)</f>
-        <v>password204</v>
+        <v>password310</v>
       </c>
       <c r="D3" t="str">
         <f ca="1">_xlfn.CONCAT("uniqueuser" &amp; RANDBETWEEN(1,99999),"@yahoo.com")</f>
-        <v>uniqueuser14401@yahoo.com</v>
+        <v>uniqueuser70462@yahoo.com</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -495,7 +495,7 @@
       </c>
       <c r="G3">
         <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
-        <v>7013829805</v>
+        <v>7327638220</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -504,15 +504,15 @@
       </c>
       <c r="B4" t="str">
         <f ca="1">"testuser" &amp; RANDBETWEEN(1,99999)</f>
-        <v>testuser14461</v>
+        <v>testuser45144</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>password1756</v>
+        <v>password2638</v>
       </c>
       <c r="D4" t="str">
         <f ca="1">D2</f>
-        <v>testuser24634@yahoo.com</v>
+        <v>testuser40332@yahoo.com</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="G4">
         <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
-        <v>9036953826</v>
+        <v>7718189184</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -531,14 +531,14 @@
       </c>
       <c r="B5" t="str">
         <f ca="1">"testuser" &amp; RANDBETWEEN(1,99999)</f>
-        <v>testuser67116</v>
+        <v>testuser82728</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="str">
         <f ca="1">_xlfn.CONCAT(B5,"@yahoo.com")</f>
-        <v>testuser67116@yahoo.com</v>
+        <v>testuser82728@yahoo.com</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -548,7 +548,7 @@
       </c>
       <c r="G5">
         <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
-        <v>7682708759</v>
+        <v>9962458859</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -557,11 +557,11 @@
       </c>
       <c r="B6" t="str">
         <f ca="1">"testuser" &amp; RANDBETWEEN(1,99999)</f>
-        <v>testuser1770</v>
+        <v>testuser58229</v>
       </c>
       <c r="D6" t="str">
         <f ca="1">_xlfn.CONCAT(B6,"@yahoo.com")</f>
-        <v>testuser1770@yahoo.com</v>
+        <v>testuser58229@yahoo.com</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -571,7 +571,7 @@
       </c>
       <c r="G6">
         <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
-        <v>7598823955</v>
+        <v>8295687443</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/datasource.xlsx
+++ b/src/main/resources/datasource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijayan.s01\Desktop\Java WorkSpace\E2EAPITesting\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0521AAD0-9E69-4A7D-AB9B-C953F5B75B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA95FE85-65BB-4ABF-9E7D-02A6100EBFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -407,7 +407,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,15 +450,15 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">"testuser" &amp; RANDBETWEEN(1,99999)</f>
-        <v>testuser40332</v>
+        <v>testuser51814</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">"password"&amp;RANDBETWEEN(10, 10000)</f>
-        <v>password123</v>
+        <v>password7926</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">_xlfn.CONCAT(B2,"@yahoo.com")</f>
-        <v>testuser40332@yahoo.com</v>
+        <v>testuser51814@yahoo.com</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -468,7 +468,7 @@
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
-        <v>8765586832</v>
+        <v>7505907261</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -477,15 +477,15 @@
       </c>
       <c r="B3" t="str">
         <f ca="1">B2</f>
-        <v>testuser40332</v>
+        <v>testuser51814</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C4" ca="1" si="0">"password"&amp;RANDBETWEEN(10, 10000)</f>
-        <v>password310</v>
+        <v>password5967</v>
       </c>
       <c r="D3" t="str">
         <f ca="1">_xlfn.CONCAT("uniqueuser" &amp; RANDBETWEEN(1,99999),"@yahoo.com")</f>
-        <v>uniqueuser70462@yahoo.com</v>
+        <v>uniqueuser61151@yahoo.com</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -495,7 +495,7 @@
       </c>
       <c r="G3">
         <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
-        <v>7327638220</v>
+        <v>8452281004</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -504,15 +504,15 @@
       </c>
       <c r="B4" t="str">
         <f ca="1">"testuser" &amp; RANDBETWEEN(1,99999)</f>
-        <v>testuser45144</v>
+        <v>testuser72041</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>password2638</v>
+        <v>password9288</v>
       </c>
       <c r="D4" t="str">
         <f ca="1">D2</f>
-        <v>testuser40332@yahoo.com</v>
+        <v>testuser51814@yahoo.com</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="G4">
         <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
-        <v>7718189184</v>
+        <v>9267663111</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -531,14 +531,14 @@
       </c>
       <c r="B5" t="str">
         <f ca="1">"testuser" &amp; RANDBETWEEN(1,99999)</f>
-        <v>testuser82728</v>
+        <v>testuser30283</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="str">
         <f ca="1">_xlfn.CONCAT(B5,"@yahoo.com")</f>
-        <v>testuser82728@yahoo.com</v>
+        <v>testuser30283@yahoo.com</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -548,7 +548,7 @@
       </c>
       <c r="G5">
         <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
-        <v>9962458859</v>
+        <v>8098516602</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -557,11 +557,11 @@
       </c>
       <c r="B6" t="str">
         <f ca="1">"testuser" &amp; RANDBETWEEN(1,99999)</f>
-        <v>testuser58229</v>
+        <v>testuser95458</v>
       </c>
       <c r="D6" t="str">
         <f ca="1">_xlfn.CONCAT(B6,"@yahoo.com")</f>
-        <v>testuser58229@yahoo.com</v>
+        <v>testuser95458@yahoo.com</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -571,7 +571,7 @@
       </c>
       <c r="G6">
         <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
-        <v>8295687443</v>
+        <v>8550794768</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/datasource.xlsx
+++ b/src/main/resources/datasource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijayan.s01\Desktop\Java WorkSpace\E2EAPITesting\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA95FE85-65BB-4ABF-9E7D-02A6100EBFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A908236B-3102-4908-9246-B5FDF19216DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -407,13 +407,13 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="28.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
@@ -449,16 +449,16 @@
         <v>9</v>
       </c>
       <c r="B2" t="str">
-        <f ca="1">"testuser" &amp; RANDBETWEEN(1,99999)</f>
-        <v>testuser51814</v>
+        <f ca="1">"testuser" &amp; RANDBETWEEN(1,99999999999)</f>
+        <v>testuser88507263117</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">"password"&amp;RANDBETWEEN(10, 10000)</f>
-        <v>password7926</v>
+        <v>password2342</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">_xlfn.CONCAT(B2,"@yahoo.com")</f>
-        <v>testuser51814@yahoo.com</v>
+        <v>testuser88507263117@yahoo.com</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -468,7 +468,7 @@
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
-        <v>7505907261</v>
+        <v>8936834831</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -477,15 +477,15 @@
       </c>
       <c r="B3" t="str">
         <f ca="1">B2</f>
-        <v>testuser51814</v>
+        <v>testuser88507263117</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C4" ca="1" si="0">"password"&amp;RANDBETWEEN(10, 10000)</f>
-        <v>password5967</v>
+        <v>password8741</v>
       </c>
       <c r="D3" t="str">
         <f ca="1">_xlfn.CONCAT("uniqueuser" &amp; RANDBETWEEN(1,99999),"@yahoo.com")</f>
-        <v>uniqueuser61151@yahoo.com</v>
+        <v>uniqueuser78646@yahoo.com</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -495,7 +495,7 @@
       </c>
       <c r="G3">
         <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
-        <v>8452281004</v>
+        <v>7957982886</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -503,16 +503,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="str">
-        <f ca="1">"testuser" &amp; RANDBETWEEN(1,99999)</f>
-        <v>testuser72041</v>
+        <f ca="1">"testuser" &amp; RANDBETWEEN(1,99999999999)</f>
+        <v>testuser42826607515</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>password9288</v>
+        <v>password2148</v>
       </c>
       <c r="D4" t="str">
         <f ca="1">D2</f>
-        <v>testuser51814@yahoo.com</v>
+        <v>testuser88507263117@yahoo.com</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="G4">
         <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
-        <v>9267663111</v>
+        <v>8003218916</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -530,15 +530,15 @@
         <v>12</v>
       </c>
       <c r="B5" t="str">
-        <f ca="1">"testuser" &amp; RANDBETWEEN(1,99999)</f>
-        <v>testuser30283</v>
+        <f ca="1">"testuser" &amp; RANDBETWEEN(1,99999999999)</f>
+        <v>testuser24938494985</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="str">
         <f ca="1">_xlfn.CONCAT(B5,"@yahoo.com")</f>
-        <v>testuser30283@yahoo.com</v>
+        <v>testuser24938494985@yahoo.com</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -548,7 +548,7 @@
       </c>
       <c r="G5">
         <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
-        <v>8098516602</v>
+        <v>8162559297</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -556,12 +556,12 @@
         <v>13</v>
       </c>
       <c r="B6" t="str">
-        <f ca="1">"testuser" &amp; RANDBETWEEN(1,99999)</f>
-        <v>testuser95458</v>
+        <f ca="1">"testuser" &amp; RANDBETWEEN(1,99999999999)</f>
+        <v>testuser67087808658</v>
       </c>
       <c r="D6" t="str">
         <f ca="1">_xlfn.CONCAT(B6,"@yahoo.com")</f>
-        <v>testuser95458@yahoo.com</v>
+        <v>testuser67087808658@yahoo.com</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -571,7 +571,7 @@
       </c>
       <c r="G6">
         <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
-        <v>8550794768</v>
+        <v>8309804127</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/datasource.xlsx
+++ b/src/main/resources/datasource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijayan.s01\Desktop\Java WorkSpace\E2EAPITesting\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A908236B-3102-4908-9246-B5FDF19216DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECB4868-EF2E-4781-B18D-42FF406599B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -407,7 +407,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,15 +450,15 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">"testuser" &amp; RANDBETWEEN(1,99999999999)</f>
-        <v>testuser88507263117</v>
+        <v>testuser34627470180</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">"password"&amp;RANDBETWEEN(10, 10000)</f>
-        <v>password2342</v>
+        <v>password9460</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">_xlfn.CONCAT(B2,"@yahoo.com")</f>
-        <v>testuser88507263117@yahoo.com</v>
+        <v>testuser34627470180@yahoo.com</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -468,7 +468,7 @@
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
-        <v>8936834831</v>
+        <v>7592215425</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -477,15 +477,15 @@
       </c>
       <c r="B3" t="str">
         <f ca="1">B2</f>
-        <v>testuser88507263117</v>
+        <v>testuser34627470180</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C4" ca="1" si="0">"password"&amp;RANDBETWEEN(10, 10000)</f>
-        <v>password8741</v>
+        <v>password5354</v>
       </c>
       <c r="D3" t="str">
         <f ca="1">_xlfn.CONCAT("uniqueuser" &amp; RANDBETWEEN(1,99999),"@yahoo.com")</f>
-        <v>uniqueuser78646@yahoo.com</v>
+        <v>uniqueuser92608@yahoo.com</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -495,7 +495,7 @@
       </c>
       <c r="G3">
         <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
-        <v>7957982886</v>
+        <v>8283427107</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -504,15 +504,15 @@
       </c>
       <c r="B4" t="str">
         <f ca="1">"testuser" &amp; RANDBETWEEN(1,99999999999)</f>
-        <v>testuser42826607515</v>
+        <v>testuser62433756237</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>password2148</v>
+        <v>password766</v>
       </c>
       <c r="D4" t="str">
         <f ca="1">D2</f>
-        <v>testuser88507263117@yahoo.com</v>
+        <v>testuser34627470180@yahoo.com</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="G4">
         <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
-        <v>8003218916</v>
+        <v>7179414590</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -531,14 +531,14 @@
       </c>
       <c r="B5" t="str">
         <f ca="1">"testuser" &amp; RANDBETWEEN(1,99999999999)</f>
-        <v>testuser24938494985</v>
+        <v>testuser56259842225</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="str">
         <f ca="1">_xlfn.CONCAT(B5,"@yahoo.com")</f>
-        <v>testuser24938494985@yahoo.com</v>
+        <v>testuser56259842225@yahoo.com</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -548,7 +548,7 @@
       </c>
       <c r="G5">
         <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
-        <v>8162559297</v>
+        <v>8248893313</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -557,11 +557,11 @@
       </c>
       <c r="B6" t="str">
         <f ca="1">"testuser" &amp; RANDBETWEEN(1,99999999999)</f>
-        <v>testuser67087808658</v>
+        <v>testuser50004872416</v>
       </c>
       <c r="D6" t="str">
         <f ca="1">_xlfn.CONCAT(B6,"@yahoo.com")</f>
-        <v>testuser67087808658@yahoo.com</v>
+        <v>testuser50004872416@yahoo.com</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -571,7 +571,7 @@
       </c>
       <c r="G6">
         <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
-        <v>8309804127</v>
+        <v>7623239260</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/datasource.xlsx
+++ b/src/main/resources/datasource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijayan.s01\Desktop\Java WorkSpace\E2EAPITesting\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECB4868-EF2E-4781-B18D-42FF406599B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD5D0E0-4961-4B6B-8F10-D8B5086F6DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>username</t>
   </si>
@@ -81,13 +81,28 @@
   </si>
   <si>
     <t>pwd1</t>
+  </si>
+  <si>
+    <t>existinguser123</t>
+  </si>
+  <si>
+    <t>existingmail123@yahoo.com</t>
+  </si>
+  <si>
+    <t>resave6061@shouxs.com</t>
+  </si>
+  <si>
+    <t>resave6061</t>
+  </si>
+  <si>
+    <t>TC_Auth_006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +112,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,13 +142,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -404,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,15 +476,15 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">"testuser" &amp; RANDBETWEEN(1,99999999999)</f>
-        <v>testuser34627470180</v>
+        <v>testuser75172226397</v>
       </c>
       <c r="C2" t="str">
-        <f ca="1">"password"&amp;RANDBETWEEN(10, 10000)</f>
-        <v>password9460</v>
+        <f ca="1">"Password@"&amp;RANDBETWEEN(10, 10000)</f>
+        <v>Password@6530</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">_xlfn.CONCAT(B2,"@yahoo.com")</f>
-        <v>testuser34627470180@yahoo.com</v>
+        <v>testuser75172226397@yahoo.com</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -468,24 +494,23 @@
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
-        <v>7592215425</v>
+        <v>8337299500</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="str">
-        <f ca="1">B2</f>
-        <v>testuser34627470180</v>
+      <c r="B3" t="s">
+        <v>15</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C4" ca="1" si="0">"password"&amp;RANDBETWEEN(10, 10000)</f>
-        <v>password5354</v>
+        <f ca="1">"Password@"&amp;RANDBETWEEN(10, 10000)</f>
+        <v>Password@516</v>
       </c>
       <c r="D3" t="str">
         <f ca="1">_xlfn.CONCAT("uniqueuser" &amp; RANDBETWEEN(1,99999),"@yahoo.com")</f>
-        <v>uniqueuser92608@yahoo.com</v>
+        <v>uniqueuser95471@yahoo.com</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -495,7 +520,7 @@
       </c>
       <c r="G3">
         <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
-        <v>8283427107</v>
+        <v>9651451562</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -504,15 +529,14 @@
       </c>
       <c r="B4" t="str">
         <f ca="1">"testuser" &amp; RANDBETWEEN(1,99999999999)</f>
-        <v>testuser62433756237</v>
+        <v>testuser65766149089</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>password766</v>
-      </c>
-      <c r="D4" t="str">
-        <f ca="1">D2</f>
-        <v>testuser34627470180@yahoo.com</v>
+        <f ca="1">"Password@"&amp;RANDBETWEEN(10, 10000)</f>
+        <v>Password@7775</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -522,7 +546,7 @@
       </c>
       <c r="G4">
         <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
-        <v>7179414590</v>
+        <v>9999326473</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -531,14 +555,14 @@
       </c>
       <c r="B5" t="str">
         <f ca="1">"testuser" &amp; RANDBETWEEN(1,99999999999)</f>
-        <v>testuser56259842225</v>
+        <v>testuser26474854432</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="str">
         <f ca="1">_xlfn.CONCAT(B5,"@yahoo.com")</f>
-        <v>testuser56259842225@yahoo.com</v>
+        <v>testuser26474854432@yahoo.com</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -548,7 +572,7 @@
       </c>
       <c r="G5">
         <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
-        <v>8248893313</v>
+        <v>9371924099</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -557,11 +581,11 @@
       </c>
       <c r="B6" t="str">
         <f ca="1">"testuser" &amp; RANDBETWEEN(1,99999999999)</f>
-        <v>testuser50004872416</v>
+        <v>testuser83603594597</v>
       </c>
       <c r="D6" t="str">
         <f ca="1">_xlfn.CONCAT(B6,"@yahoo.com")</f>
-        <v>testuser50004872416@yahoo.com</v>
+        <v>testuser83603594597@yahoo.com</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -571,11 +595,26 @@
       </c>
       <c r="G6">
         <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
-        <v>7623239260</v>
+        <v>8028432458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{948C1502-DB92-4648-B9B7-D02D2F98B5DC}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{CF33066C-200C-4030-ACC9-1B1C27F62DD4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/datasource.xlsx
+++ b/src/main/resources/datasource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijayan.s01\Desktop\Java WorkSpace\E2EAPITesting\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD5D0E0-4961-4B6B-8F10-D8B5086F6DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC6FF98-EAD1-4922-9768-DA2C9F31547C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,15 +476,15 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">"testuser" &amp; RANDBETWEEN(1,99999999999)</f>
-        <v>testuser75172226397</v>
+        <v>testuser71997129720</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">"Password@"&amp;RANDBETWEEN(10, 10000)</f>
-        <v>Password@6530</v>
+        <v>Password@8728</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">_xlfn.CONCAT(B2,"@yahoo.com")</f>
-        <v>testuser75172226397@yahoo.com</v>
+        <v>testuser71997129720@yahoo.com</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -494,7 +494,7 @@
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
-        <v>8337299500</v>
+        <v>8751505820</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -506,11 +506,11 @@
       </c>
       <c r="C3" t="str">
         <f ca="1">"Password@"&amp;RANDBETWEEN(10, 10000)</f>
-        <v>Password@516</v>
+        <v>Password@4860</v>
       </c>
       <c r="D3" t="str">
         <f ca="1">_xlfn.CONCAT("uniqueuser" &amp; RANDBETWEEN(1,99999),"@yahoo.com")</f>
-        <v>uniqueuser95471@yahoo.com</v>
+        <v>uniqueuser6963@yahoo.com</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -520,7 +520,7 @@
       </c>
       <c r="G3">
         <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
-        <v>9651451562</v>
+        <v>8534509382</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -529,11 +529,11 @@
       </c>
       <c r="B4" t="str">
         <f ca="1">"testuser" &amp; RANDBETWEEN(1,99999999999)</f>
-        <v>testuser65766149089</v>
+        <v>testuser4497083842</v>
       </c>
       <c r="C4" t="str">
         <f ca="1">"Password@"&amp;RANDBETWEEN(10, 10000)</f>
-        <v>Password@7775</v>
+        <v>Password@7109</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
@@ -546,7 +546,7 @@
       </c>
       <c r="G4">
         <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
-        <v>9999326473</v>
+        <v>9662556563</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -555,14 +555,14 @@
       </c>
       <c r="B5" t="str">
         <f ca="1">"testuser" &amp; RANDBETWEEN(1,99999999999)</f>
-        <v>testuser26474854432</v>
+        <v>testuser71928201134</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="str">
         <f ca="1">_xlfn.CONCAT(B5,"@yahoo.com")</f>
-        <v>testuser26474854432@yahoo.com</v>
+        <v>testuser71928201134@yahoo.com</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -572,7 +572,7 @@
       </c>
       <c r="G5">
         <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
-        <v>9371924099</v>
+        <v>7908142427</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -581,11 +581,11 @@
       </c>
       <c r="B6" t="str">
         <f ca="1">"testuser" &amp; RANDBETWEEN(1,99999999999)</f>
-        <v>testuser83603594597</v>
+        <v>testuser71746795415</v>
       </c>
       <c r="D6" t="str">
         <f ca="1">_xlfn.CONCAT(B6,"@yahoo.com")</f>
-        <v>testuser83603594597@yahoo.com</v>
+        <v>testuser71746795415@yahoo.com</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="G6">
         <f ca="1">RANDBETWEEN(6999999999,9999999999)</f>
-        <v>8028432458</v>
+        <v>9443340530</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
